--- a/lab/09-apps/streamlit/sales.xlsx
+++ b/lab/09-apps/streamlit/sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\workshop\solution\11-streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\workshop\lab\09-apps\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B05B26D-023B-4C53-B5DD-6F6E7F0A1A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC74AC-05A9-426A-AB2D-34C1FA123B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3017" yWindow="3017" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="969" yWindow="583" windowWidth="15548" windowHeight="16748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E13"/>
+      <selection activeCell="E1" sqref="E1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
